--- a/biology/Médecine/Goya_et_son_médecin/Goya_et_son_médecin.xlsx
+++ b/biology/Médecine/Goya_et_son_médecin/Goya_et_son_médecin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goya_et_son_m%C3%A9decin</t>
+          <t>Goya_et_son_médecin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Goya et son médecin[1] ou Goya soigné par le docteur Arrieta (en espagnol : Goya atendido por el doctor Arrieta) est une peinture réalisée par Francisco de Goya en 1820. Elle reflète la grave maladie dont a souffert son auteur de novembre 1819 à la date à laquelle il a été traité par le médecin Eugenio Arrieta.
+Goya et son médecin ou Goya soigné par le docteur Arrieta (en espagnol : Goya atendido por el doctor Arrieta) est une peinture réalisée par Francisco de Goya en 1820. Elle reflète la grave maladie dont a souffert son auteur de novembre 1819 à la date à laquelle il a été traité par le médecin Eugenio Arrieta.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Goya_et_son_m%C3%A9decin</t>
+          <t>Goya_et_son_médecin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Contexte de l'œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisco de Goya est très malade de novembre 1819 à 1820, date à laquelle le docteur Arrieta le soigne. Aucun document n'atteste de la cause de ses maux, mais Goya lui-même prétend que son docteur lui a sauvé la vie. La récupération de Goya coïncide avec le réveil idéologique de l'Espagne, que Goya voyait enfin influencée par les Lumières[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francisco de Goya est très malade de novembre 1819 à 1820, date à laquelle le docteur Arrieta le soigne. Aucun document n'atteste de la cause de ses maux, mais Goya lui-même prétend que son docteur lui a sauvé la vie. La récupération de Goya coïncide avec le réveil idéologique de l'Espagne, que Goya voyait enfin influencée par les Lumières.
 Au pied de l'œuvre, une note, très probablement de Goya, dit :
         « Goya agradecido, á su amigo Arrieta: por el acierto y esmero con qe le salvo la vida en su aguda ypeligrosa enfermedad, padecida á fines del año 1819, a los setenta y tres de su edad. Lo pintó en 1820. »
         « Goya reconnaissant, à son ami Arrieta : pour la justesse et l'application avec lesquelles il lui a sauvé la vie dans son intense etdangereuse maladie, dont il a souffert fin 1819, à l'âge de soixante-treize ans. Il l'a peint en 1820. »
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Goya_et_son_m%C3%A9decin</t>
+          <t>Goya_et_son_médecin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux critiques interprètent ce tableau comme un ex-voto à son médecin, Eugenio Arrieta, en remerciement de la guérison de la délicate maladie dont souffrait Goya, âgé de soixante-treize ans, et dont le peintre considérait — si l'on admet que l'inscription est autographe — qu'elle lui avait sauvé la vie.
 Le tableau pourrait être conçu comme une Pietà laïque : à la place habituelle de Jésus-Christ se trouverait un Goya mourant, et le médecin ferait office d'ange protecteur. À l'arrière-plan se trouvent des femmes qui ont été interprétées non seulement comme les compagnes de Goya (il a vécu avec Leocadia Weiss (es)), mais aussi comme les divinités du destin ou Les Moires, sur lesquelles sa vie est suspendue, comme par un fil.
